--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="125">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,265 +43,262 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>tiny</t>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>broken</t>
   </si>
   <si>
     <t>instead</t>
   </si>
   <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>broken</t>
+    <t>small</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>guess</t>
   </si>
   <si>
     <t>missing</t>
   </si>
   <si>
-    <t>guess</t>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>description</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>short</t>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>light</t>
   </si>
   <si>
     <t>fell</t>
   </si>
   <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>apart</t>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>cheap</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
     <t>pay</t>
   </si>
   <si>
-    <t>half</t>
-  </si>
-  <si>
     <t>tried</t>
   </si>
   <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
     <t>less</t>
   </si>
   <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>maybe</t>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>seems</t>
+  </si>
+  <si>
+    <t>bit</t>
   </si>
   <si>
     <t>though</t>
   </si>
   <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>parts</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>nothing</t>
+    <t>used</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>bit</t>
+    <t>hard</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
-    <t>could</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>ordered</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>put</t>
   </si>
   <si>
     <t>pieces</t>
   </si>
   <si>
-    <t>1</t>
+    <t>5</t>
   </si>
   <si>
     <t>think</t>
   </si>
   <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>use</t>
   </si>
   <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>looks</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>made</t>
   </si>
   <si>
     <t>two</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>34</t>
+    <t>even</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>way</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>made</t>
+    <t>much</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>toy</t>
+  </si>
+  <si>
     <t>get</t>
   </si>
   <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>toy</t>
-  </si>
-  <si>
-    <t>got</t>
+    <t>bought</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>bought</t>
+    <t>quality</t>
   </si>
   <si>
     <t>time</t>
@@ -310,6 +307,9 @@
     <t>really</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>old</t>
   </si>
   <si>
@@ -343,36 +343,33 @@
     <t>loves</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>learn</t>
   </si>
   <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
     <t>fun</t>
   </si>
   <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
     <t>family</t>
   </si>
   <si>
@@ -385,10 +382,10 @@
     <t>easy</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>play</t>
-  </si>
-  <si>
-    <t>good</t>
   </si>
   <si>
     <t>positive</t>
@@ -760,7 +757,7 @@
         <v>99</v>
       </c>
       <c r="J1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -842,13 +839,13 @@
         <v>100</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -860,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -868,13 +865,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8863636363636364</v>
+        <v>0.7961165048543689</v>
       </c>
       <c r="C4">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -886,19 +883,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>101</v>
       </c>
       <c r="K4">
-        <v>0.8153846153846154</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="L4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -910,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -918,13 +915,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7887323943661971</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C5">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -936,19 +933,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>102</v>
       </c>
       <c r="K5">
-        <v>0.7204301075268817</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="L5">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M5">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -960,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1018,13 +1015,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.777027027027027</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="C7">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="D7">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1036,19 +1033,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>104</v>
       </c>
       <c r="K7">
-        <v>0.578125</v>
+        <v>0.625</v>
       </c>
       <c r="L7">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1060,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1068,13 +1065,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7634408602150538</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C8">
-        <v>142</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>142</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1086,19 +1083,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>105</v>
       </c>
       <c r="K8">
-        <v>0.4347826086956522</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1110,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1118,13 +1115,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7631578947368421</v>
+        <v>0.75</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1136,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>106</v>
       </c>
       <c r="K9">
-        <v>0.4344262295081967</v>
+        <v>0.4565573770491803</v>
       </c>
       <c r="L9">
-        <v>530</v>
+        <v>557</v>
       </c>
       <c r="M9">
-        <v>530</v>
+        <v>557</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1160,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>690</v>
+        <v>663</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1168,13 +1165,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7586206896551724</v>
+        <v>0.75</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1186,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>107</v>
       </c>
       <c r="K10">
-        <v>0.4051724137931034</v>
+        <v>0.4347202295552367</v>
       </c>
       <c r="L10">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="M10">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1207,10 +1204,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>414</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1218,13 +1215,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7572815533980582</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="C11">
-        <v>156</v>
+        <v>53</v>
       </c>
       <c r="D11">
-        <v>156</v>
+        <v>53</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1236,19 +1233,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>108</v>
       </c>
       <c r="K11">
-        <v>0.4024896265560166</v>
+        <v>0.3962655601659751</v>
       </c>
       <c r="L11">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M11">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1260,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1292,13 +1289,13 @@
         <v>109</v>
       </c>
       <c r="K12">
-        <v>0.3180428134556575</v>
+        <v>0.3313253012048193</v>
       </c>
       <c r="L12">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="M12">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1310,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>223</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1318,13 +1315,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6857142857142857</v>
+        <v>0.6722689075630253</v>
       </c>
       <c r="C13">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1336,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>110</v>
       </c>
       <c r="K13">
-        <v>0.3121693121693122</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="L13">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="M13">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1360,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>130</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1368,13 +1365,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6458333333333334</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C14">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D14">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1386,31 +1383,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>111</v>
       </c>
       <c r="K14">
-        <v>0.3083333333333333</v>
+        <v>0.2883435582822086</v>
       </c>
       <c r="L14">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="M14">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>83</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1418,13 +1415,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6050420168067226</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C15">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1436,31 +1433,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>112</v>
       </c>
       <c r="K15">
-        <v>0.2771084337349398</v>
+        <v>0.2712765957446808</v>
       </c>
       <c r="L15">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M15">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>120</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1468,13 +1465,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5903614457831325</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C16">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D16">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1486,19 +1483,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>113</v>
       </c>
       <c r="K16">
-        <v>0.25</v>
+        <v>0.2109375</v>
       </c>
       <c r="L16">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1510,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1518,13 +1515,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5777777777777777</v>
+        <v>0.6144578313253012</v>
       </c>
       <c r="C17">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D17">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1536,31 +1533,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>114</v>
       </c>
       <c r="K17">
-        <v>0.1888111888111888</v>
+        <v>0.1814516129032258</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>116</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1568,13 +1565,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5740740740740741</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="C18">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1586,19 +1583,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>115</v>
       </c>
       <c r="K18">
-        <v>0.1710758377425044</v>
+        <v>0.1783783783783784</v>
       </c>
       <c r="L18">
-        <v>194</v>
+        <v>33</v>
       </c>
       <c r="M18">
-        <v>201</v>
+        <v>34</v>
       </c>
       <c r="N18">
         <v>0.97</v>
@@ -1610,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>940</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1618,13 +1615,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5740740740740741</v>
+        <v>0.5710144927536231</v>
       </c>
       <c r="C19">
-        <v>31</v>
+        <v>197</v>
       </c>
       <c r="D19">
-        <v>31</v>
+        <v>197</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1636,31 +1633,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>116</v>
       </c>
       <c r="K19">
-        <v>0.1699346405228758</v>
+        <v>0.1748251748251748</v>
       </c>
       <c r="L19">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M19">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N19">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1668,13 +1665,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5714285714285714</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="C20">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1686,31 +1683,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>117</v>
       </c>
       <c r="K20">
-        <v>0.1686746987951807</v>
+        <v>0.1640350877192983</v>
       </c>
       <c r="L20">
-        <v>42</v>
+        <v>187</v>
       </c>
       <c r="M20">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>207</v>
+        <v>953</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1718,13 +1715,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5449275362318841</v>
+        <v>0.5370370370370371</v>
       </c>
       <c r="C21">
-        <v>188</v>
+        <v>29</v>
       </c>
       <c r="D21">
-        <v>188</v>
+        <v>29</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1736,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>157</v>
+        <v>25</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>118</v>
       </c>
       <c r="K21">
-        <v>0.1612903225806452</v>
+        <v>0.116991643454039</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M21">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1760,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>156</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1768,13 +1765,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5433070866141733</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C22">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D22">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1786,31 +1783,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>119</v>
       </c>
       <c r="K22">
-        <v>0.0947075208913649</v>
+        <v>0.1011089367253751</v>
       </c>
       <c r="L22">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="M22">
-        <v>34</v>
+        <v>163</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>325</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1818,13 +1815,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5306122448979592</v>
+        <v>0.5196850393700787</v>
       </c>
       <c r="C23">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="D23">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1836,31 +1833,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>120</v>
       </c>
       <c r="K23">
-        <v>0.09031838856400259</v>
+        <v>0.09627329192546584</v>
       </c>
       <c r="L23">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="M23">
-        <v>141</v>
+        <v>33</v>
       </c>
       <c r="N23">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O23">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>1400</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1868,13 +1865,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.509090909090909</v>
+        <v>0.515625</v>
       </c>
       <c r="C24">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D24">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1886,31 +1883,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>121</v>
       </c>
       <c r="K24">
-        <v>0.08695652173913043</v>
+        <v>0.07774798927613941</v>
       </c>
       <c r="L24">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M24">
         <v>30</v>
       </c>
       <c r="N24">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="O24">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>294</v>
+        <v>344</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1918,13 +1915,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.46875</v>
+        <v>0.5</v>
       </c>
       <c r="C25">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D25">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1936,31 +1933,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>122</v>
       </c>
       <c r="K25">
-        <v>0.08064516129032258</v>
+        <v>0.0463768115942029</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M25">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="N25">
-        <v>0.9399999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="O25">
-        <v>0.06000000000000005</v>
+        <v>0.32</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>342</v>
+        <v>658</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1968,13 +1965,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4631578947368421</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C26">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D26">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1986,31 +1983,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>123</v>
       </c>
       <c r="K26">
-        <v>0.04973118279569892</v>
+        <v>0.03748326639892905</v>
       </c>
       <c r="L26">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="M26">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="N26">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="O26">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>707</v>
+        <v>719</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2018,13 +2015,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4609375</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C27">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D27">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2036,31 +2033,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>69</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K27">
-        <v>0.03591954022988506</v>
-      </c>
-      <c r="L27">
-        <v>25</v>
-      </c>
-      <c r="M27">
-        <v>34</v>
-      </c>
-      <c r="N27">
-        <v>0.74</v>
-      </c>
-      <c r="O27">
-        <v>0.26</v>
-      </c>
-      <c r="P27" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q27">
-        <v>671</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2068,13 +2041,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4606741573033708</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="C28">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D28">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2086,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2094,13 +2067,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4603174603174603</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C29">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D29">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2112,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2120,13 +2093,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4549763033175355</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C30">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="D30">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2138,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>115</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2146,13 +2119,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4504950495049505</v>
+        <v>0.4477611940298508</v>
       </c>
       <c r="C31">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="D31">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2164,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>111</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2172,13 +2145,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4444444444444444</v>
+        <v>0.4455445544554456</v>
       </c>
       <c r="C32">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="D32">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2190,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>35</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2198,13 +2171,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4259259259259259</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C33">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D33">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2216,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2224,13 +2197,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4098360655737705</v>
+        <v>0.4407582938388626</v>
       </c>
       <c r="C34">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="D34">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2242,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>36</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2250,13 +2223,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4</v>
+        <v>0.4296875</v>
       </c>
       <c r="C35">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="D35">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2268,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>36</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2276,13 +2249,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.396551724137931</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="C36">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D36">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2294,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2302,13 +2275,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3928571428571428</v>
+        <v>0.3934426229508197</v>
       </c>
       <c r="C37">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D37">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2320,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2354,13 +2327,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3846153846153846</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="C39">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D39">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2372,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>72</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2380,13 +2353,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3623188405797101</v>
+        <v>0.3833333333333334</v>
       </c>
       <c r="C40">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D40">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2398,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2406,13 +2379,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3548387096774194</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="C41">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D41">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2424,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2432,13 +2405,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3478260869565217</v>
+        <v>0.3186813186813187</v>
       </c>
       <c r="C42">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D42">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2450,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2458,25 +2431,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.3432835820895522</v>
+        <v>0.3093525179856115</v>
       </c>
       <c r="C43">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D43">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>44</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2484,13 +2457,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3406593406593407</v>
+        <v>0.3092783505154639</v>
       </c>
       <c r="C44">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D44">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2502,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2510,13 +2483,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.3196202531645569</v>
+        <v>0.3006329113924051</v>
       </c>
       <c r="C45">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D45">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2528,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2536,13 +2509,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.3163265306122449</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="C46">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D46">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2554,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2562,13 +2535,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.3041237113402062</v>
+        <v>0.2959183673469388</v>
       </c>
       <c r="C47">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="D47">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2580,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>135</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2588,13 +2561,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2990654205607476</v>
+        <v>0.2905982905982906</v>
       </c>
       <c r="C48">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="D48">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2606,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>150</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2614,13 +2587,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2926829268292683</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C49">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D49">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2632,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>58</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2640,25 +2613,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.282051282051282</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C50">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="D50">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>56</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2666,13 +2639,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2783505154639175</v>
+        <v>0.285</v>
       </c>
       <c r="C51">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="D51">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2684,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>70</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2692,13 +2665,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2777777777777778</v>
+        <v>0.2835051546391752</v>
       </c>
       <c r="C52">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D52">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2710,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>78</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2718,25 +2691,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.275</v>
+        <v>0.2710280373831775</v>
       </c>
       <c r="C53">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D53">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>145</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2744,25 +2717,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2742857142857143</v>
+        <v>0.2697466467958271</v>
       </c>
       <c r="C54">
-        <v>48</v>
+        <v>181</v>
       </c>
       <c r="D54">
-        <v>48</v>
+        <v>184</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>127</v>
+        <v>490</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2770,13 +2743,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.2721518987341772</v>
+        <v>0.2682926829268293</v>
       </c>
       <c r="C55">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="D55">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2788,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>230</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2796,13 +2769,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.2717391304347826</v>
+        <v>0.2681159420289855</v>
       </c>
       <c r="C56">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D56">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2814,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2822,25 +2795,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2708333333333333</v>
+        <v>0.2627118644067797</v>
       </c>
       <c r="C57">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D57">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E57">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2848,25 +2821,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2589928057553957</v>
+        <v>0.2611464968152866</v>
       </c>
       <c r="C58">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D58">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E58">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2874,25 +2847,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2540861812778603</v>
+        <v>0.2577319587628866</v>
       </c>
       <c r="C59">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c r="D59">
-        <v>172</v>
+        <v>25</v>
       </c>
       <c r="E59">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>502</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2900,25 +2873,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2450331125827815</v>
+        <v>0.2523364485981308</v>
       </c>
       <c r="C60">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="D60">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="E60">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>342</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2926,25 +2899,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.2420749279538905</v>
+        <v>0.2378854625550661</v>
       </c>
       <c r="C61">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="D61">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="E61">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>263</v>
+        <v>346</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2952,13 +2925,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.2356687898089172</v>
+        <v>0.234375</v>
       </c>
       <c r="C62">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D62">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2970,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>120</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2978,13 +2951,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.2349726775956284</v>
+        <v>0.2230769230769231</v>
       </c>
       <c r="C63">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D63">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2996,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>140</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3004,13 +2977,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.2288135593220339</v>
+        <v>0.2155172413793103</v>
       </c>
       <c r="C64">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="D64">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3022,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>91</v>
+        <v>273</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3030,25 +3003,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.225</v>
+        <v>0.2145748987854251</v>
       </c>
       <c r="C65">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D65">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E65">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F65">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>124</v>
+        <v>194</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3056,25 +3029,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.2248062015503876</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="C66">
+        <v>27</v>
+      </c>
+      <c r="D66">
         <v>29</v>
       </c>
-      <c r="D66">
-        <v>30</v>
-      </c>
       <c r="E66">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F66">
-        <v>0.97</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
       </c>
       <c r="H66">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3082,13 +3055,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.2156862745098039</v>
+        <v>0.2110091743119266</v>
       </c>
       <c r="C67">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D67">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3100,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3108,25 +3081,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.201058201058201</v>
+        <v>0.1989528795811518</v>
       </c>
       <c r="C68">
         <v>38</v>
       </c>
       <c r="D68">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E68">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3134,25 +3107,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1954887218045113</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="C69">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D69">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="E69">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>214</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3160,25 +3133,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1933701657458564</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="C70">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="D70">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E70">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>292</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3186,25 +3159,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1927083333333333</v>
+        <v>0.1720430107526882</v>
       </c>
       <c r="C71">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D71">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="G71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3212,13 +3185,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.183206106870229</v>
+        <v>0.1677018633540373</v>
       </c>
       <c r="C72">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D72">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3230,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>107</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3238,25 +3211,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1746031746031746</v>
+        <v>0.1641221374045801</v>
       </c>
       <c r="C73">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D73">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E73">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="F73">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>104</v>
+        <v>219</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3264,25 +3237,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1680327868852459</v>
+        <v>0.1464788732394366</v>
       </c>
       <c r="C74">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D74">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E74">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>203</v>
+        <v>303</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3290,25 +3263,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1530612244897959</v>
+        <v>0.1460055096418733</v>
       </c>
       <c r="C75">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D75">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>166</v>
+        <v>310</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3316,25 +3289,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.148936170212766</v>
+        <v>0.1455696202531646</v>
       </c>
       <c r="C76">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D76">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E76">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F76">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76">
-        <v>160</v>
+        <v>270</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3342,25 +3315,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1455696202531646</v>
+        <v>0.1435897435897436</v>
       </c>
       <c r="C77">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D77">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77">
-        <v>135</v>
+        <v>167</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3368,25 +3341,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1434977578475336</v>
+        <v>0.1376811594202899</v>
       </c>
       <c r="C78">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D78">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="E78">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="F78">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
       </c>
       <c r="H78">
-        <v>382</v>
+        <v>238</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3394,25 +3367,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1420454545454546</v>
+        <v>0.1371428571428571</v>
       </c>
       <c r="C79">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D79">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="E79">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>302</v>
+        <v>151</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3420,25 +3393,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1397849462365591</v>
+        <v>0.1294117647058824</v>
       </c>
       <c r="C80">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D80">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E80">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F80">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
       </c>
       <c r="H80">
-        <v>240</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3446,25 +3419,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.136094674556213</v>
+        <v>0.1255605381165919</v>
       </c>
       <c r="C81">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="D81">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="E81">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="F81">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
       </c>
       <c r="H81">
-        <v>146</v>
+        <v>390</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3472,25 +3445,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.126984126984127</v>
+        <v>0.1235431235431235</v>
       </c>
       <c r="C82">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D82">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="E82">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="F82">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82">
-        <v>275</v>
+        <v>376</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3498,25 +3471,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.1225165562913907</v>
+        <v>0.1204620462046205</v>
       </c>
       <c r="C83">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D83">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E83">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F83">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
       </c>
       <c r="H83">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3524,25 +3497,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.1061320754716981</v>
+        <v>0.09510086455331412</v>
       </c>
       <c r="C84">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D84">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E84">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="F84">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
       </c>
       <c r="H84">
-        <v>379</v>
+        <v>314</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3550,25 +3523,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1023255813953488</v>
+        <v>0.08936825885978428</v>
       </c>
       <c r="C85">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="D85">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="E85">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="F85">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
       </c>
       <c r="H85">
-        <v>193</v>
+        <v>591</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3576,25 +3549,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.1009389671361502</v>
+        <v>0.08899297423887588</v>
       </c>
       <c r="C86">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D86">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E86">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="F86">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
       </c>
       <c r="H86">
-        <v>383</v>
+        <v>389</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3602,13 +3575,13 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.09582689335394126</v>
+        <v>0.0781563126252505</v>
       </c>
       <c r="C87">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D87">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="E87">
         <v>0.11</v>
@@ -3620,7 +3593,7 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <v>585</v>
+        <v>460</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3628,25 +3601,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.09428571428571429</v>
+        <v>0.07800511508951406</v>
       </c>
       <c r="C88">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="D88">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="E88">
-        <v>0.03</v>
+        <v>0.16</v>
       </c>
       <c r="F88">
-        <v>0.97</v>
+        <v>0.84</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>317</v>
+        <v>721</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3654,25 +3627,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.09114249037227215</v>
+        <v>0.07666666666666666</v>
       </c>
       <c r="C89">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="D89">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="E89">
-        <v>0.17</v>
+        <v>0.04</v>
       </c>
       <c r="F89">
-        <v>0.83</v>
+        <v>0.96</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>708</v>
+        <v>277</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3680,25 +3653,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07784431137724551</v>
+        <v>0.06787330316742081</v>
       </c>
       <c r="C90">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D90">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E90">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="F90">
-        <v>0.9299999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>462</v>
+        <v>412</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3706,25 +3679,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.0659090909090909</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="C91">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D91">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E91">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="F91">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
       </c>
       <c r="H91">
-        <v>411</v>
+        <v>434</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3732,25 +3705,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.05806451612903226</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="C92">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D92">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E92">
-        <v>0.13</v>
+        <v>0.33</v>
       </c>
       <c r="F92">
-        <v>0.87</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>438</v>
+        <v>363</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3758,25 +3731,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.03539823008849557</v>
+        <v>0.04405286343612335</v>
       </c>
       <c r="C93">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D93">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E93">
-        <v>0.37</v>
+        <v>0.27</v>
       </c>
       <c r="F93">
-        <v>0.63</v>
+        <v>0.73</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
   </sheetData>
